--- a/1_政策宣傳執情形/總整理/原民會.xlsx
+++ b/1_政策宣傳執情形/總整理/原民會.xlsx
@@ -566,43 +566,43 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col max="1" min="1" width="9.10"/>
-    <col max="2" min="2" width="9.10"/>
-    <col max="3" min="3" width="9.10"/>
-    <col max="4" min="4" width="9.10"/>
-    <col max="5" min="5" width="9.10"/>
-    <col max="6" min="6" width="9.10"/>
-    <col max="7" min="7" width="9.10"/>
-    <col max="8" min="8" width="9.10"/>
+    <col width="9.10" max="1" min="1"/>
+    <col width="9.10" max="2" min="2"/>
+    <col width="9.10" max="3" min="3"/>
+    <col width="9.10" max="4" min="4"/>
+    <col width="9.10" max="5" min="5"/>
+    <col width="9.10" max="6" min="6"/>
+    <col width="9.10" max="7" min="7"/>
+    <col width="9.10" max="8" min="8"/>
   </cols>
   <sheetData>
-    <row spans="1:8" r="1">
-      <c s="1" t="s" r="A1">
+    <row r="1" spans="1:8">
+      <c t="s" s="1" r="A1">
         <v>35</v>
       </c>
-      <c s="1" t="s" r="B1">
+      <c t="s" s="1" r="B1">
         <v>46</v>
       </c>
-      <c s="1" t="s" r="C1">
+      <c t="s" s="1" r="C1">
         <v>51</v>
       </c>
-      <c s="1" t="s" r="D1">
+      <c t="s" s="1" r="D1">
         <v>49</v>
       </c>
-      <c s="1" t="s" r="E1">
+      <c t="s" s="1" r="E1">
         <v>58</v>
       </c>
-      <c s="1" t="s" r="F1">
+      <c t="s" s="1" r="F1">
         <v>44</v>
       </c>
-      <c s="1" t="s" r="G1">
+      <c t="s" s="1" r="G1">
         <v>54</v>
       </c>
-      <c s="1" t="s" r="H1">
+      <c t="s" s="1" r="H1">
         <v>36</v>
       </c>
     </row>
-    <row spans="1:8" r="2">
+    <row r="2" spans="1:8">
       <c t="s" r="A2">
         <v>0</v>
       </c>
@@ -625,7 +625,7 @@
         <v>42</v>
       </c>
     </row>
-    <row spans="1:8" r="3">
+    <row r="3" spans="1:8">
       <c t="s" r="A3">
         <v>0</v>
       </c>
@@ -648,7 +648,7 @@
         <v>42</v>
       </c>
     </row>
-    <row spans="1:8" r="4">
+    <row r="4" spans="1:8">
       <c t="s" r="A4">
         <v>0</v>
       </c>
@@ -671,7 +671,7 @@
         <v>42</v>
       </c>
     </row>
-    <row spans="1:8" r="5">
+    <row r="5" spans="1:8">
       <c t="s" r="A5">
         <v>0</v>
       </c>
@@ -694,7 +694,7 @@
         <v>42</v>
       </c>
     </row>
-    <row spans="1:8" r="6">
+    <row r="6" spans="1:8">
       <c t="s" r="A6">
         <v>0</v>
       </c>
@@ -717,7 +717,7 @@
         <v>42</v>
       </c>
     </row>
-    <row spans="1:8" r="7">
+    <row r="7" spans="1:8">
       <c t="s" r="A7">
         <v>0</v>
       </c>
@@ -740,7 +740,7 @@
         <v>42</v>
       </c>
     </row>
-    <row spans="1:8" r="8">
+    <row r="8" spans="1:8">
       <c t="s" r="A8">
         <v>40</v>
       </c>
@@ -763,7 +763,7 @@
         <v>42</v>
       </c>
     </row>
-    <row spans="1:8" r="9">
+    <row r="9" spans="1:8">
       <c t="s" r="A9">
         <v>12</v>
       </c>
@@ -786,7 +786,7 @@
         <v>42</v>
       </c>
     </row>
-    <row spans="1:8" r="10">
+    <row r="10" spans="1:8">
       <c t="s" r="A10">
         <v>12</v>
       </c>
@@ -809,7 +809,7 @@
         <v>42</v>
       </c>
     </row>
-    <row spans="1:8" r="11">
+    <row r="11" spans="1:8">
       <c t="s" r="A11">
         <v>12</v>
       </c>
@@ -832,7 +832,7 @@
         <v>42</v>
       </c>
     </row>
-    <row spans="1:8" r="12">
+    <row r="12" spans="1:8">
       <c t="s" r="A12">
         <v>12</v>
       </c>
@@ -855,7 +855,7 @@
         <v>42</v>
       </c>
     </row>
-    <row spans="1:8" r="13">
+    <row r="13" spans="1:8">
       <c t="s" r="A13">
         <v>12</v>
       </c>
@@ -878,7 +878,7 @@
         <v>42</v>
       </c>
     </row>
-    <row spans="1:8" r="14">
+    <row r="14" spans="1:8">
       <c t="s" r="A14">
         <v>12</v>
       </c>
@@ -901,7 +901,7 @@
         <v>42</v>
       </c>
     </row>
-    <row spans="1:8" r="15">
+    <row r="15" spans="1:8">
       <c t="s" r="A15">
         <v>12</v>
       </c>
@@ -924,7 +924,7 @@
         <v>42</v>
       </c>
     </row>
-    <row spans="1:8" r="16">
+    <row r="16" spans="1:8">
       <c t="s" r="A16">
         <v>47</v>
       </c>
@@ -947,7 +947,7 @@
         <v>42</v>
       </c>
     </row>
-    <row spans="1:8" r="17">
+    <row r="17" spans="1:8">
       <c t="s" r="A17">
         <v>47</v>
       </c>
@@ -970,7 +970,7 @@
         <v>42</v>
       </c>
     </row>
-    <row spans="1:8" r="18">
+    <row r="18" spans="1:8">
       <c t="s" r="A18">
         <v>55</v>
       </c>
@@ -993,7 +993,7 @@
         <v>42</v>
       </c>
     </row>
-    <row spans="1:8" r="19">
+    <row r="19" spans="1:8">
       <c t="s" r="A19">
         <v>55</v>
       </c>
@@ -1016,7 +1016,7 @@
         <v>42</v>
       </c>
     </row>
-    <row spans="1:8" r="20">
+    <row r="20" spans="1:8">
       <c t="s" r="A20">
         <v>55</v>
       </c>
@@ -1039,7 +1039,7 @@
         <v>42</v>
       </c>
     </row>
-    <row spans="1:8" r="21">
+    <row r="21" spans="1:8">
       <c t="s" r="A21">
         <v>50</v>
       </c>
@@ -1062,7 +1062,7 @@
         <v>42</v>
       </c>
     </row>
-    <row spans="1:8" r="22">
+    <row r="22" spans="1:8">
       <c t="s" r="A22">
         <v>50</v>
       </c>
@@ -1085,7 +1085,7 @@
         <v>42</v>
       </c>
     </row>
-    <row spans="1:8" r="23">
+    <row r="23" spans="1:8">
       <c t="s" r="A23">
         <v>39</v>
       </c>
@@ -1102,7 +1102,7 @@
         <v>42</v>
       </c>
     </row>
-    <row spans="1:8" r="24">
+    <row r="24" spans="1:8">
       <c t="s" r="A24">
         <v>1</v>
       </c>
@@ -1125,7 +1125,7 @@
         <v>42</v>
       </c>
     </row>
-    <row spans="1:8" r="25">
+    <row r="25" spans="1:8">
       <c t="s" r="A25">
         <v>39</v>
       </c>
@@ -1148,7 +1148,7 @@
         <v>42</v>
       </c>
     </row>
-    <row spans="1:8" r="26">
+    <row r="26" spans="1:8">
       <c t="s" r="A26">
         <v>39</v>
       </c>
@@ -1171,7 +1171,7 @@
         <v>42</v>
       </c>
     </row>
-    <row spans="1:8" r="27">
+    <row r="27" spans="1:8">
       <c t="s" r="A27">
         <v>39</v>
       </c>
@@ -1194,7 +1194,7 @@
         <v>42</v>
       </c>
     </row>
-    <row spans="1:8" r="28">
+    <row r="28" spans="1:8">
       <c t="s" r="A28">
         <v>39</v>
       </c>
@@ -1217,7 +1217,7 @@
         <v>42</v>
       </c>
     </row>
-    <row spans="1:8" r="29">
+    <row r="29" spans="1:8">
       <c t="s" r="A29">
         <v>39</v>
       </c>
@@ -1240,7 +1240,7 @@
         <v>42</v>
       </c>
     </row>
-    <row spans="1:8" r="30">
+    <row r="30" spans="1:8">
       <c t="s" r="A30">
         <v>39</v>
       </c>
@@ -1263,7 +1263,7 @@
         <v>42</v>
       </c>
     </row>
-    <row spans="1:8" r="31">
+    <row r="31" spans="1:8">
       <c t="s" r="A31">
         <v>38</v>
       </c>
@@ -1286,7 +1286,7 @@
         <v>42</v>
       </c>
     </row>
-    <row spans="1:8" r="32">
+    <row r="32" spans="1:8">
       <c t="s" r="A32">
         <v>38</v>
       </c>
@@ -1309,7 +1309,7 @@
         <v>42</v>
       </c>
     </row>
-    <row spans="1:8" r="33">
+    <row r="33" spans="1:8">
       <c t="s" r="A33">
         <v>34</v>
       </c>
@@ -1332,7 +1332,7 @@
         <v>42</v>
       </c>
     </row>
-    <row spans="1:8" r="34">
+    <row r="34" spans="1:8">
       <c t="s" r="A34">
         <v>34</v>
       </c>
@@ -1355,7 +1355,7 @@
         <v>42</v>
       </c>
     </row>
-    <row spans="1:8" r="35">
+    <row r="35" spans="1:8">
       <c t="s" r="A35">
         <v>56</v>
       </c>
@@ -1378,7 +1378,7 @@
         <v>42</v>
       </c>
     </row>
-    <row spans="1:8" r="36">
+    <row r="36" spans="1:8">
       <c t="s" r="A36">
         <v>41</v>
       </c>
@@ -1401,7 +1401,7 @@
         <v>42</v>
       </c>
     </row>
-    <row spans="1:8" r="37">
+    <row r="37" spans="1:8">
       <c t="s" r="A37">
         <v>43</v>
       </c>
@@ -1424,7 +1424,7 @@
         <v>42</v>
       </c>
     </row>
-    <row spans="1:8" r="38">
+    <row r="38" spans="1:8">
       <c t="s" r="A38">
         <v>57</v>
       </c>
